--- a/hzaction-master/src/main/webapp/temp/项目整体结算表.xlsx
+++ b/hzaction-master/src/main/webapp/temp/项目整体结算表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
   <si>
     <t>项目整体结算表列表</t>
   </si>
@@ -106,22 +106,43 @@
     <t/>
   </si>
   <si>
+    <t>AX-2019-1567865431955</t>
+  </si>
+  <si>
+    <t>ljy test1</t>
+  </si>
+  <si>
+    <t>项目经理1</t>
+  </si>
+  <si>
+    <t>李氏集团</t>
+  </si>
+  <si>
+    <t>11122233</t>
+  </si>
+  <si>
+    <t>qqqqq</t>
+  </si>
+  <si>
+    <t>旭日</t>
+  </si>
+  <si>
+    <t>恒大</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>李先生</t>
+  </si>
+  <si>
+    <t>好好藉由</t>
+  </si>
+  <si>
     <t>AX-2019-1567152005777</t>
-  </si>
-  <si>
-    <t>好好藉由</t>
-  </si>
-  <si>
-    <t>李先生</t>
-  </si>
-  <si>
-    <t>李氏集团</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>恒大</t>
   </si>
   <si>
     <t>采购应付/已付明细</t>
@@ -1279,7 +1300,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="J1">
       <selection pane="topLeft" activeCell="AA4" sqref="AA4"/>
@@ -1496,7 +1517,7 @@
         <v>31</v>
       </c>
       <c r="D4">
-        <v>43684.166863425926</v>
+        <v>43715.424733796295</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -1505,37 +1526,37 @@
         <v>33</v>
       </c>
       <c r="G4">
-        <v>151.29</v>
+        <v>333666.99</v>
       </c>
       <c r="H4">
-        <v>123</v>
+        <v>2000</v>
       </c>
       <c r="I4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4">
-        <v>123</v>
+        <v>1110000</v>
       </c>
       <c r="K4">
-        <v>43711</v>
-      </c>
-      <c r="L4">
-        <v>43720</v>
+        <v>43715</v>
       </c>
       <c r="M4">
-        <v>636665</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>-375881</v>
+        <v>-5000</v>
+      </c>
+      <c r="O4">
+        <v>43718</v>
       </c>
       <c r="P4">
-        <v>1012546</v>
+        <v>5000</v>
       </c>
       <c r="Q4">
-        <v>-1012423</v>
+        <v>1105000</v>
       </c>
       <c r="R4">
-        <v>-823108.1300813009</v>
+        <v>99.54954954954955</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1545,13 +1566,132 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.6">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>43684.166863425926</v>
+      </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>151.29</v>
+      </c>
+      <c r="H5">
+        <v>123</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <v>123</v>
+      </c>
+      <c r="K5">
+        <v>43711</v>
+      </c>
+      <c r="L5">
+        <v>43720</v>
+      </c>
+      <c r="M5">
+        <v>456654</v>
+      </c>
+      <c r="N5">
+        <v>-544779</v>
+      </c>
+      <c r="P5">
+        <v>1001433</v>
+      </c>
+      <c r="Q5">
+        <v>-1001310</v>
+      </c>
+      <c r="R5">
+        <v>-814073.1707317074</v>
       </c>
       <c r="X5">
         <v>0</v>
       </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="15.6">
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="15.6">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="15.6">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="15.6">
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="15.6">
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.6">
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="15.6">
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <v>0</v>
       </c>
     </row>
@@ -1595,7 +1735,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="J9" sqref="J9"/>
@@ -1605,7 +1745,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1623,22 +1763,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6">
@@ -1664,32 +1804,6 @@
         <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.6">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1706,7 +1820,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A3" sqref="A3"/>
@@ -1716,7 +1830,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1732,16 +1846,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6">
@@ -1761,26 +1875,6 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.6">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
         <v>28</v>
       </c>
     </row>

--- a/hzaction-master/src/main/webapp/temp/项目整体结算表.xlsx
+++ b/hzaction-master/src/main/webapp/temp/项目整体结算表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="55">
   <si>
     <t>项目整体结算表列表</t>
   </si>
@@ -106,43 +106,49 @@
     <t/>
   </si>
   <si>
-    <t>AX-2019-1567865431955</t>
-  </si>
-  <si>
-    <t>ljy test1</t>
-  </si>
-  <si>
-    <t>项目经理1</t>
+    <t>AX-2019-test1-992</t>
+  </si>
+  <si>
+    <t>立项名称测试002</t>
+  </si>
+  <si>
+    <t>项目经理002</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>中标方002</t>
+  </si>
+  <si>
+    <t>旭日</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>200000</t>
+  </si>
+  <si>
+    <t>测试人员12</t>
+  </si>
+  <si>
+    <t>牟牟</t>
+  </si>
+  <si>
+    <t>测试项目管理</t>
+  </si>
+  <si>
+    <t>AX-2019-test12-588</t>
+  </si>
+  <si>
+    <t>恒大</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
   <si>
     <t>李氏集团</t>
-  </si>
-  <si>
-    <t>11122233</t>
-  </si>
-  <si>
-    <t>qqqqq</t>
-  </si>
-  <si>
-    <t>旭日</t>
-  </si>
-  <si>
-    <t>恒大</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>李先生</t>
-  </si>
-  <si>
-    <t>好好藉由</t>
-  </si>
-  <si>
-    <t>AX-2019-1567152005777</t>
   </si>
   <si>
     <t>采购应付/已付明细</t>
@@ -1300,7 +1306,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="100" workbookViewId="0" topLeftCell="J1">
       <selection pane="topLeft" activeCell="AA4" sqref="AA4"/>
@@ -1517,46 +1523,46 @@
         <v>31</v>
       </c>
       <c r="D4">
-        <v>43715.424733796295</v>
+        <v>43727.41502314815</v>
       </c>
       <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="G4">
-        <v>333666.99</v>
-      </c>
-      <c r="H4">
-        <v>2000</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
       <c r="J4">
-        <v>1110000</v>
+        <v>202</v>
       </c>
       <c r="K4">
-        <v>43715</v>
+        <v>43727</v>
+      </c>
+      <c r="L4">
+        <v>43728</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="N4">
-        <v>-5000</v>
-      </c>
-      <c r="O4">
-        <v>43718</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="Q4">
-        <v>1105000</v>
+        <v>-5798</v>
       </c>
       <c r="R4">
-        <v>99.54954954954955</v>
+        <v>-2870.29702970297</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -1566,23 +1572,11 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.6">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5">
-        <v>43684.166863425926</v>
-      </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>151.29</v>
@@ -1591,7 +1585,7 @@
         <v>123</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>123</v>
@@ -1603,19 +1597,19 @@
         <v>43720</v>
       </c>
       <c r="M5">
-        <v>456654</v>
+        <v>333333</v>
       </c>
       <c r="N5">
-        <v>-544779</v>
+        <v>-666667</v>
       </c>
       <c r="P5">
-        <v>1001433</v>
+        <v>1000000</v>
       </c>
       <c r="Q5">
-        <v>-1001310</v>
+        <v>-999877</v>
       </c>
       <c r="R5">
-        <v>-814073.1707317074</v>
+        <v>-812908.1300813009</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1626,7 +1620,7 @@
     </row>
     <row r="6" spans="1:27" ht="15.6">
       <c r="E6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1637,7 +1631,7 @@
     </row>
     <row r="7" spans="1:27" ht="15.6">
       <c r="E7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1647,9 +1641,6 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.6">
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
       <c r="X8">
         <v>0</v>
       </c>
@@ -1666,6 +1657,12 @@
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.6">
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
       <c r="X10">
         <v>0</v>
       </c>
@@ -1674,8 +1671,35 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="15.6">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11">
+        <v>43731.132997685185</v>
+      </c>
       <c r="E11" t="s">
         <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>20000</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11">
+        <v>43731</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1692,6 +1716,17 @@
         <v>0</v>
       </c>
       <c r="Y12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="15.6">
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <v>0</v>
       </c>
     </row>
@@ -1745,7 +1780,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1763,22 +1798,22 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.6">
@@ -1830,7 +1865,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1846,16 +1881,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6">

--- a/hzaction-master/src/main/webapp/temp/项目整体结算表.xlsx
+++ b/hzaction-master/src/main/webapp/temp/项目整体结算表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="22488" windowHeight="9420" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="22703" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主表信息" sheetId="1" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>项目整体结算表列表</t>
   </si>
@@ -112,15 +112,15 @@
     <t>包子</t>
   </si>
   <si>
-    <t>客户少卜</t>
-  </si>
-  <si>
     <t>42000</t>
   </si>
   <si>
     <t>中标方包子</t>
   </si>
   <si>
+    <t>2010</t>
+  </si>
+  <si>
     <t>少卜1</t>
   </si>
   <si>
@@ -136,6 +136,21 @@
     <t>AX-2019-shaobu001-693</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>政府一部</t>
+  </si>
+  <si>
+    <t>赖锦荣</t>
+  </si>
+  <si>
+    <t>惠州市住建局城建档案馆信息化项目</t>
+  </si>
+  <si>
+    <t>AX-2019--001</t>
+  </si>
+  <si>
     <t>安信</t>
   </si>
   <si>
@@ -166,7 +181,25 @@
     <t>付款金额</t>
   </si>
   <si>
-    <t/>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>其他支出明细</t>
@@ -179,6 +212,21 @@
   </si>
   <si>
     <t>申请日期</t>
+  </si>
+  <si>
+    <t>5222112</t>
+  </si>
+  <si>
+    <t>BRX0001</t>
+  </si>
+  <si>
+    <t>52235666</t>
+  </si>
+  <si>
+    <t>32123154</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -186,11 +234,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -238,17 +286,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <charset val="-122"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -260,6 +303,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="-122"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +350,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="-122"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -275,14 +373,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -292,10 +382,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <family val="2"/>
-      <charset val="-122"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -316,48 +405,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="-122"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="-122"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -365,8 +412,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -695,7 +743,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -707,7 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -716,55 +764,55 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="1" applyNumberFormat="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -773,16 +821,16 @@
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -1309,23 +1357,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <dimension ref="A1:AA6"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="O13" sqref="O13"/>
+      <selection pane="topLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="25.5" customWidth="1"/>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
     <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="8" max="8" width="11.75" customWidth="1"/>
     <col min="9" max="9" width="11.875" customWidth="1"/>
     <col min="10" max="10" width="12.125" customWidth="1"/>
-    <col min="11" max="11" width="16.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="16" style="1" customWidth="1"/>
     <col min="15" max="15" width="20.125" style="1" customWidth="1"/>
   </cols>
@@ -1486,11 +1534,9 @@
       <c r="D4" s="7">
         <v>43739.43952546296</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="G4" s="6">
         <v>4200</v>
@@ -1499,7 +1545,7 @@
         <v>2016</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J4" s="6">
         <v>2017</v>
@@ -1537,23 +1583,31 @@
       <c r="U4" s="6">
         <v>4029</v>
       </c>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
+      <c r="V4" s="6">
+        <v>1005</v>
+      </c>
+      <c r="W4" s="6">
+        <v>5040</v>
+      </c>
       <c r="X4" s="6">
         <v>0</v>
       </c>
       <c r="Y4" s="6">
         <v>0</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
+      <c r="Z4" s="6">
+        <v>-3839</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>-7052</v>
+      </c>
     </row>
     <row r="5" spans="1:27" ht="15.6">
       <c r="A5" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>3</v>
@@ -1563,7 +1617,7 @@
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G5" s="6">
         <v>200</v>
@@ -1572,7 +1626,7 @@
         <v>2000</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J5" s="6">
         <v>12000</v>
@@ -1600,7 +1654,9 @@
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="V5" s="6">
+        <v>712</v>
+      </c>
       <c r="W5" s="6"/>
       <c r="X5" s="6">
         <v>0</v>
@@ -1613,38 +1669,30 @@
     </row>
     <row r="6" spans="1:27" ht="15.6">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D6" s="7">
-        <v>43742.44565972222</v>
+        <v>43746.485868055555</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="6">
-        <v>2706</v>
-      </c>
-      <c r="H6" s="6">
-        <v>3600</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" s="6">
-        <v>12000</v>
-      </c>
-      <c r="K6" s="7">
-        <v>43759</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -1652,21 +1700,74 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-      <c r="S6" s="6">
-        <v>6036</v>
-      </c>
-      <c r="T6" s="6">
-        <v>6414</v>
-      </c>
-      <c r="U6" s="6">
-        <v>-378</v>
-      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
       <c r="V6" s="6"/>
       <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
+      <c r="X6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>0</v>
+      </c>
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
+    </row>
+    <row r="7" spans="1:27" ht="15.6">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="7">
+        <v>43742.44565972222</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="6">
+        <v>2706</v>
+      </c>
+      <c r="H7" s="6">
+        <v>3600</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="6">
+        <v>12000</v>
+      </c>
+      <c r="K7" s="7">
+        <v>43759</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6">
+        <v>3344</v>
+      </c>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -1706,25 +1807,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="topLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.25" customWidth="1"/>
-    <col min="2" max="2" width="15.75" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
     <col min="4" max="4" width="22.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="21.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1742,45 +1844,109 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="6" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="D3" s="7">
+        <v>43747</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
+      </c>
+      <c r="F3" s="7">
+        <v>43748</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="7">
+        <v>43749</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="7">
+        <v>43748</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.6">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="7">
+        <v>43750</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.6">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="7">
+        <v>43751</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1794,7 +1960,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="E4" sqref="E4"/>
@@ -1802,9 +1968,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.25" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="20.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
@@ -1812,7 +1978,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="33.6" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1828,36 +1994,216 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6">
       <c r="A3" s="6" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="E3" s="7">
+        <v>43749.17019675926</v>
+      </c>
+      <c r="F3" s="6">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.6">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="7">
+        <v>43749.17019675926</v>
+      </c>
+      <c r="F4" s="6">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.6">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="7">
+        <v>43742.99538194444</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.6">
+      <c r="A6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="7">
+        <v>43742.61253472222</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.6">
+      <c r="A7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="7">
+        <v>43742.61253472222</v>
+      </c>
+      <c r="F7" s="6">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.6">
+      <c r="A8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="7">
+        <v>43742.61253472222</v>
+      </c>
+      <c r="F8" s="6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.6">
+      <c r="A9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="7">
+        <v>43745.492430555554</v>
+      </c>
+      <c r="F9" s="6">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.6">
+      <c r="A10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="7">
+        <v>43745.492430555554</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.6">
+      <c r="A11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="7">
+        <v>43742.42622685185</v>
+      </c>
+      <c r="F11" s="6">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.6">
+      <c r="A12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="7">
+        <v>43742.42622685185</v>
+      </c>
+      <c r="F12" s="6">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/hzaction-master/src/main/webapp/temp/项目整体结算表.xlsx
+++ b/hzaction-master/src/main/webapp/temp/项目整体结算表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="22703" windowHeight="9720" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="22488" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主表信息" sheetId="1" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
   <si>
     <t>项目整体结算表列表</t>
   </si>
@@ -103,130 +103,196 @@
     <t>应收毛利</t>
   </si>
   <si>
+    <t>AX-2019-ZF02-002</t>
+  </si>
+  <si>
+    <t>少卜</t>
+  </si>
+  <si>
+    <t>立项合同测试002</t>
+  </si>
+  <si>
+    <t>AX-2019-KH_TEST_001-002</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>5002</t>
+  </si>
+  <si>
+    <t>项目名称qq</t>
+  </si>
+  <si>
+    <t>AX-2019-LM01-001</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>中标方包子</t>
+  </si>
+  <si>
+    <t>42000</t>
+  </si>
+  <si>
+    <t>包子</t>
+  </si>
+  <si>
+    <t>包子入侵</t>
+  </si>
+  <si>
     <t>AX-2019-shaobu001-123</t>
   </si>
   <si>
-    <t>包子入侵</t>
-  </si>
-  <si>
-    <t>包子</t>
-  </si>
-  <si>
-    <t>42000</t>
-  </si>
-  <si>
-    <t>中标方包子</t>
+    <t>424242</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>23334</t>
+  </si>
+  <si>
+    <t>AX-2019-shaobu001-332</t>
+  </si>
+  <si>
+    <t>寒烟柔</t>
+  </si>
+  <si>
+    <t>战斗法师</t>
+  </si>
+  <si>
+    <t>AX-2019-shaobu001-693</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>易伟</t>
+  </si>
+  <si>
+    <t>大亚湾区应急信息升级</t>
+  </si>
+  <si>
+    <t>AX-2019-ZF01-001</t>
+  </si>
+  <si>
+    <t>小手冰凉</t>
+  </si>
+  <si>
+    <t>AX-2019-ZF02-001</t>
+  </si>
+  <si>
+    <t>采购应付/已付明细</t>
+  </si>
+  <si>
+    <t>费用分期</t>
+  </si>
+  <si>
+    <t>计划付款日期</t>
+  </si>
+  <si>
+    <t>计划付款金额</t>
+  </si>
+  <si>
+    <t>实际付款日期</t>
+  </si>
+  <si>
+    <t>付款金额</t>
+  </si>
+  <si>
+    <t>第四期</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>首付款</t>
+  </si>
+  <si>
+    <t>第三期</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>第二期</t>
+  </si>
+  <si>
+    <t>其他支出明细</t>
+  </si>
+  <si>
+    <t>单号</t>
+  </si>
+  <si>
+    <t>单据_费用类型</t>
+  </si>
+  <si>
+    <t>申请日期</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>32123154</t>
+  </si>
+  <si>
+    <t>52235666</t>
+  </si>
+  <si>
+    <t>业务费用</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>BRX0001</t>
+  </si>
+  <si>
+    <t>项目经理合同002</t>
+  </si>
+  <si>
+    <t>20003</t>
+  </si>
+  <si>
+    <t>中标方测试</t>
   </si>
   <si>
     <t>2010</t>
   </si>
   <si>
-    <t>少卜1</t>
-  </si>
-  <si>
-    <t>54120</t>
-  </si>
-  <si>
-    <t>寒烟柔</t>
-  </si>
-  <si>
-    <t>战斗法师</t>
-  </si>
-  <si>
-    <t>AX-2019-shaobu001-693</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>政府一部</t>
-  </si>
-  <si>
-    <t>赖锦荣</t>
-  </si>
-  <si>
-    <t>惠州市住建局城建档案馆信息化项目</t>
-  </si>
-  <si>
-    <t>AX-2019--001</t>
-  </si>
-  <si>
-    <t>安信</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>项目名称ljy_test</t>
-  </si>
-  <si>
-    <t>AX-2019-A1-726</t>
-  </si>
-  <si>
-    <t>采购应付/已付明细</t>
-  </si>
-  <si>
-    <t>费用分期</t>
-  </si>
-  <si>
-    <t>计划付款日期</t>
-  </si>
-  <si>
-    <t>计划付款金额</t>
-  </si>
-  <si>
-    <t>实际付款日期</t>
-  </si>
-  <si>
-    <t>付款金额</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>其他支出明细</t>
-  </si>
-  <si>
-    <t>单号</t>
-  </si>
-  <si>
-    <t>单据_费用类型</t>
-  </si>
-  <si>
-    <t>申请日期</t>
-  </si>
-  <si>
-    <t>5222112</t>
-  </si>
-  <si>
-    <t>BRX0001</t>
-  </si>
-  <si>
-    <t>52235666</t>
-  </si>
-  <si>
-    <t>32123154</t>
-  </si>
-  <si>
-    <t>123</t>
+    <t>1555</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>材料费用</t>
+  </si>
+  <si>
+    <t>间接费用</t>
   </si>
 </sst>
 </file>
@@ -234,10 +300,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="24">
@@ -279,6 +345,92 @@
       <charset val="-122"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="-122"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="-122"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -297,33 +449,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="-122"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -343,80 +478,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="-122"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="-122"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -743,7 +809,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -755,88 +821,88 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="5" applyNumberFormat="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="6" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -851,10 +917,10 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
@@ -863,22 +929,22 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment/>
     </xf>
   </cellStyleXfs>
@@ -1357,7 +1423,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A5" sqref="A5"/>
@@ -1529,167 +1595,119 @@
         <v>29</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>43739.43952546296</v>
+        <v>43752.66509259259</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G4" s="6">
-        <v>4200</v>
+        <v>100.04</v>
       </c>
       <c r="H4" s="6">
-        <v>2016</v>
+        <v>10</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J4" s="6">
-        <v>2017</v>
+        <v>1000</v>
       </c>
       <c r="K4" s="7">
-        <v>43746</v>
-      </c>
-      <c r="L4" s="7">
-        <v>43761</v>
-      </c>
-      <c r="M4" s="6">
-        <v>3001</v>
-      </c>
-      <c r="N4" s="6">
-        <v>1800</v>
-      </c>
-      <c r="O4" s="7">
-        <v>43754</v>
-      </c>
-      <c r="P4" s="6">
-        <v>1201</v>
-      </c>
-      <c r="Q4" s="6">
-        <v>816</v>
-      </c>
-      <c r="R4" s="6">
-        <v>40.45612295488349</v>
-      </c>
-      <c r="S4" s="6">
-        <v>8064</v>
-      </c>
-      <c r="T4" s="6">
-        <v>4035</v>
-      </c>
-      <c r="U4" s="6">
-        <v>4029</v>
-      </c>
+        <v>43753</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
       <c r="V4" s="6">
-        <v>1005</v>
-      </c>
-      <c r="W4" s="6">
-        <v>5040</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="W4" s="6"/>
       <c r="X4" s="6">
         <v>0</v>
       </c>
       <c r="Y4" s="6">
         <v>0</v>
       </c>
-      <c r="Z4" s="6">
-        <v>-3839</v>
-      </c>
-      <c r="AA4" s="6">
-        <v>-7052</v>
-      </c>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
     </row>
     <row r="5" spans="1:27" ht="15.6">
       <c r="A5" s="6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="D5" s="7">
-        <v>43738.145277777774</v>
+        <v>43752.38395833333</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="6">
-        <v>200</v>
-      </c>
-      <c r="H5" s="6">
-        <v>2000</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="6">
-        <v>12000</v>
-      </c>
-      <c r="K5" s="7">
-        <v>43742</v>
-      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
       <c r="O5" s="7"/>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>12000</v>
-      </c>
-      <c r="R5" s="6">
-        <v>100</v>
-      </c>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6">
-        <v>712</v>
-      </c>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6">
+        <v>6006</v>
+      </c>
+      <c r="T5" s="6">
+        <v>901</v>
+      </c>
+      <c r="U5" s="6">
+        <v>5105</v>
+      </c>
+      <c r="V5" s="6"/>
       <c r="W5" s="6"/>
       <c r="X5" s="6">
-        <v>0</v>
+        <v>4257</v>
       </c>
       <c r="Y5" s="6">
-        <v>0</v>
+        <v>6.303698630136987</v>
       </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
     </row>
     <row r="6" spans="1:27" ht="15.6">
       <c r="A6" s="6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>43746.485868055555</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>43749.12447916666</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
@@ -1716,36 +1734,24 @@
     </row>
     <row r="7" spans="1:27" ht="15.6">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7">
         <v>43742.44565972222</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="6">
-        <v>2706</v>
-      </c>
-      <c r="H7" s="6">
-        <v>3600</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="6">
-        <v>12000</v>
-      </c>
-      <c r="K7" s="7">
-        <v>43759</v>
-      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="7"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -1753,7 +1759,9 @@
       <c r="P7" s="6"/>
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
+      <c r="S7" s="6">
+        <v>3555</v>
+      </c>
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
       <c r="V7" s="6">
@@ -1768,6 +1776,330 @@
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
+    </row>
+    <row r="8" spans="1:27" ht="15.6">
+      <c r="A8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="7">
+        <v>43742.44565972222</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6">
+        <v>3344</v>
+      </c>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+    </row>
+    <row r="9" spans="1:27" ht="15.6">
+      <c r="A9" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43742.475393518514</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+    </row>
+    <row r="10" spans="1:27" ht="15.6">
+      <c r="A10" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7">
+        <v>43739.43952546296</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="6">
+        <v>4200</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2016</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="6">
+        <v>2017</v>
+      </c>
+      <c r="K10" s="7">
+        <v>43746</v>
+      </c>
+      <c r="L10" s="7">
+        <v>43753</v>
+      </c>
+      <c r="M10" s="6">
+        <v>11111</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>43738</v>
+      </c>
+      <c r="P10" s="6">
+        <v>11111</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>-9094</v>
+      </c>
+      <c r="R10" s="6">
+        <v>-450.8676251859197</v>
+      </c>
+      <c r="S10" s="6">
+        <v>8064</v>
+      </c>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6">
+        <v>1005</v>
+      </c>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6">
+        <v>-7052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="15.6">
+      <c r="A11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="7">
+        <v>43739.43952546296</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="6">
+        <v>4200</v>
+      </c>
+      <c r="H11" s="6">
+        <v>2016</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="6">
+        <v>2017</v>
+      </c>
+      <c r="K11" s="7">
+        <v>43746</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6">
+        <v>1005</v>
+      </c>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.6">
+      <c r="A12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43699.20048611111</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="6">
+        <v>600</v>
+      </c>
+      <c r="H12" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="6">
+        <v>18000</v>
+      </c>
+      <c r="K12" s="7">
+        <v>43752</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6">
+        <v>2000</v>
+      </c>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.6">
+      <c r="A13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="7">
+        <v>43754.42802083333</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="6">
+        <v>800.12</v>
+      </c>
+      <c r="H13" s="6">
+        <v>2004</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2005</v>
+      </c>
+      <c r="K13" s="7">
+        <v>43759</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -1807,10 +2139,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="topLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1826,7 +2158,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="42" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1844,85 +2176,77 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D3" s="7">
         <v>43747</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="7">
-        <v>43748</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>58</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D4" s="7">
         <v>43749</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F4" s="7">
-        <v>43748</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>59</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D5" s="7">
         <v>43750</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="6"/>
@@ -1930,23 +2254,149 @@
     </row>
     <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D6" s="7">
         <v>43751</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.6">
+      <c r="A7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="7">
+        <v>43752</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.6">
+      <c r="A8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="7">
+        <v>43753</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.6">
+      <c r="A9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43754</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.6">
+      <c r="A10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="7">
+        <v>43760</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.6">
+      <c r="A11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="7">
+        <v>43762</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.6">
+      <c r="A12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43762</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1960,10 +2410,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="topLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="5"/>
@@ -1978,7 +2428,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="33.6" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1994,73 +2444,73 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.6">
       <c r="A3" s="6" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E3" s="7">
-        <v>43749.17019675926</v>
+        <v>43745.492430555554</v>
       </c>
       <c r="F3" s="6">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E4" s="7">
         <v>43749.17019675926</v>
       </c>
       <c r="F4" s="6">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6">
       <c r="A5" s="6" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E5" s="7">
-        <v>43742.99538194444</v>
+        <v>43742.49538194444</v>
       </c>
       <c r="F5" s="6">
         <v>2</v>
@@ -2068,39 +2518,39 @@
     </row>
     <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E6" s="7">
-        <v>43742.61253472222</v>
+        <v>43749.17019675926</v>
       </c>
       <c r="F6" s="6">
-        <v>1235</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E7" s="7">
-        <v>43742.61253472222</v>
+        <v>43742.11253472222</v>
       </c>
       <c r="F7" s="6">
         <v>111</v>
@@ -2108,36 +2558,36 @@
     </row>
     <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="E8" s="7">
-        <v>43742.61253472222</v>
+        <v>43742.49538194444</v>
       </c>
       <c r="F8" s="6">
-        <v>153</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E9" s="7">
         <v>43745.492430555554</v>
@@ -2148,62 +2598,202 @@
     </row>
     <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="E10" s="7">
-        <v>43745.492430555554</v>
+        <v>43742.11253472222</v>
       </c>
       <c r="F10" s="6">
-        <v>1333</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="6" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E11" s="7">
-        <v>43742.42622685185</v>
+        <v>43760.16811342593</v>
       </c>
       <c r="F11" s="6">
-        <v>512</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6">
       <c r="A12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="C12" s="6" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E12" s="7">
-        <v>43742.42622685185</v>
+        <v>43745.492430555554</v>
       </c>
       <c r="F12" s="6">
-        <v>200</v>
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.6">
+      <c r="A13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="7">
+        <v>43749.17019675926</v>
+      </c>
+      <c r="F13" s="6">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.6">
+      <c r="A14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="7">
+        <v>43742.11253472222</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.6">
+      <c r="A15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="7">
+        <v>43749.17019675926</v>
+      </c>
+      <c r="F15" s="6">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.6">
+      <c r="A16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="7">
+        <v>43742.11253472222</v>
+      </c>
+      <c r="F16" s="6">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.6">
+      <c r="A17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="7">
+        <v>43745.492430555554</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.6">
+      <c r="A18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="7">
+        <v>43742.11253472222</v>
+      </c>
+      <c r="F18" s="6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.6">
+      <c r="A19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="7">
+        <v>43742.11253472222</v>
+      </c>
+      <c r="F19" s="6">
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/hzaction-master/src/main/webapp/temp/项目整体结算表.xlsx
+++ b/hzaction-master/src/main/webapp/temp/项目整体结算表.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="114">
   <si>
     <t>项目整体结算表列表</t>
   </si>
@@ -235,61 +235,127 @@
     <t>申请日期</t>
   </si>
   <si>
+    <t>32123154</t>
+  </si>
+  <si>
+    <t>5222112</t>
+  </si>
+  <si>
+    <t>TOUBAO_001</t>
+  </si>
+  <si>
+    <t>业务费用</t>
+  </si>
+  <si>
+    <t>BRX0001</t>
+  </si>
+  <si>
+    <t>52235666</t>
+  </si>
+  <si>
+    <t>项目经理合同002</t>
+  </si>
+  <si>
+    <t>20003</t>
+  </si>
+  <si>
+    <t>中标方测试</t>
+  </si>
+  <si>
+    <t>AX-2019-KH_TEST_001-001</t>
+  </si>
+  <si>
+    <t>立项投标测试名称001</t>
+  </si>
+  <si>
+    <t>项目经理001</t>
+  </si>
+  <si>
+    <t>2000006</t>
+  </si>
+  <si>
+    <t>拟中标方001</t>
+  </si>
+  <si>
+    <t>AX-2019-A1-726</t>
+  </si>
+  <si>
+    <t>项目名称ljy_test</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>安信</t>
+  </si>
+  <si>
+    <t>AX-2019--001</t>
+  </si>
+  <si>
+    <t>惠州市住建局城建档案馆信息化项目</t>
+  </si>
+  <si>
+    <t>赖锦荣</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>1555</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>3001</t>
+  </si>
+  <si>
+    <t>3011</t>
+  </si>
+  <si>
+    <t>3002</t>
+  </si>
+  <si>
+    <t>3222</t>
+  </si>
+  <si>
+    <t>3003</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
-    <t>32123154</t>
-  </si>
-  <si>
-    <t>52235666</t>
-  </si>
-  <si>
-    <t>业务费用</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>BRX0001</t>
-  </si>
-  <si>
-    <t>项目经理合同002</t>
-  </si>
-  <si>
-    <t>20003</t>
-  </si>
-  <si>
-    <t>中标方测试</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>1555</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
     <t>材料费用</t>
+  </si>
+  <si>
+    <t>劳务费用</t>
   </si>
   <si>
     <t>间接费用</t>
@@ -1423,7 +1489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A5" sqref="A5"/>
@@ -1684,7 +1750,7 @@
         <v>4257</v>
       </c>
       <c r="Y5" s="6">
-        <v>6.303698630136987</v>
+        <v>8.403041095890412</v>
       </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1762,18 +1828,20 @@
       <c r="S7" s="6">
         <v>3555</v>
       </c>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
+      <c r="T7" s="6">
+        <v>5123</v>
+      </c>
+      <c r="U7" s="6">
+        <v>-1568</v>
+      </c>
       <c r="V7" s="6">
         <v>3344</v>
       </c>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="6">
-        <v>0</v>
-      </c>
+      <c r="W7" s="6">
+        <v>8467</v>
+      </c>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
     </row>
@@ -2035,16 +2103,18 @@
       <c r="S12" s="6">
         <v>2000</v>
       </c>
-      <c r="T12" s="6"/>
-      <c r="U12" s="6"/>
+      <c r="T12" s="6">
+        <v>1998</v>
+      </c>
+      <c r="U12" s="6">
+        <v>2</v>
+      </c>
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
       <c r="X12" s="6">
         <v>0</v>
       </c>
-      <c r="Y12" s="6">
-        <v>0</v>
-      </c>
+      <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
     </row>
@@ -2100,6 +2170,199 @@
       </c>
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.6">
+      <c r="A14" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="7">
+        <v>43753.42831018518</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="6">
+        <v>160000.48</v>
+      </c>
+      <c r="H14" s="6">
+        <v>2008</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2007</v>
+      </c>
+      <c r="K14" s="7">
+        <v>43755</v>
+      </c>
+      <c r="L14" s="7">
+        <v>43754</v>
+      </c>
+      <c r="M14" s="6">
+        <v>2129</v>
+      </c>
+      <c r="N14" s="6">
+        <v>96</v>
+      </c>
+      <c r="O14" s="7">
+        <v>43756</v>
+      </c>
+      <c r="P14" s="6">
+        <v>2033</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>-26</v>
+      </c>
+      <c r="R14" s="6">
+        <v>-1.2954658694569008</v>
+      </c>
+      <c r="S14" s="6">
+        <v>9006</v>
+      </c>
+      <c r="T14" s="6">
+        <v>6233</v>
+      </c>
+      <c r="U14" s="6">
+        <v>2773</v>
+      </c>
+      <c r="V14" s="6">
+        <v>2003</v>
+      </c>
+      <c r="W14" s="6">
+        <v>8236</v>
+      </c>
+      <c r="X14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="6">
+        <v>-6203</v>
+      </c>
+      <c r="AA14" s="6">
+        <v>-9002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15.6">
+      <c r="A15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="7">
+        <v>43738.145277777774</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="6">
+        <v>200</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="J15" s="6">
+        <v>12000</v>
+      </c>
+      <c r="K15" s="7">
+        <v>43742</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="6">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>12000</v>
+      </c>
+      <c r="R15" s="6">
+        <v>100</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6">
+        <v>712</v>
+      </c>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.6">
+      <c r="A16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="7">
+        <v>43746.485868055555</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6">
+        <v>11</v>
+      </c>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="28">
@@ -2139,7 +2402,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="C3" sqref="C3"/>
@@ -2266,7 +2529,7 @@
         <v>43751</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="6"/>
@@ -2286,10 +2549,12 @@
         <v>43752</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F7" s="7"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="15.6">
@@ -2306,10 +2571,12 @@
         <v>43753</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="15.6">
@@ -2326,77 +2593,147 @@
         <v>43754</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="15.6">
       <c r="A10" s="6" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D10" s="7">
-        <v>43760</v>
+        <v>43776</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="F10" s="7">
+        <v>43754</v>
+      </c>
       <c r="G10" s="6" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="6" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>67</v>
       </c>
       <c r="D11" s="7">
-        <v>43762</v>
+        <v>43777</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="7"/>
+        <v>101</v>
+      </c>
+      <c r="F11" s="7">
+        <v>43754</v>
+      </c>
       <c r="G11" s="6" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="6" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D12" s="7">
+        <v>43778</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.6">
+      <c r="A13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="7">
+        <v>43760</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.6">
+      <c r="A14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="7">
         <v>43762</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.6">
+      <c r="A15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="7">
+        <v>43762</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2410,7 +2747,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="D3" sqref="D3"/>
@@ -2458,10 +2795,10 @@
     </row>
     <row r="3" spans="1:6" ht="15.6">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>74</v>
@@ -2470,18 +2807,18 @@
         <v>75</v>
       </c>
       <c r="E3" s="7">
-        <v>43745.492430555554</v>
+        <v>43756.1120949074</v>
       </c>
       <c r="F3" s="6">
-        <v>512</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.6">
       <c r="A4" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>77</v>
@@ -2490,10 +2827,10 @@
         <v>75</v>
       </c>
       <c r="E4" s="7">
-        <v>43749.17019675926</v>
+        <v>43745.492430555554</v>
       </c>
       <c r="F4" s="6">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.6">
@@ -2510,50 +2847,50 @@
         <v>75</v>
       </c>
       <c r="E5" s="7">
-        <v>43742.49538194444</v>
+        <v>43749.17019675926</v>
       </c>
       <c r="F5" s="6">
-        <v>2</v>
+        <v>501</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="6" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>87</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E6" s="7">
-        <v>43749.17019675926</v>
+        <v>43742.42622685185</v>
       </c>
       <c r="F6" s="6">
-        <v>501</v>
+        <v>512</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.6">
       <c r="A7" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E7" s="7">
-        <v>43742.11253472222</v>
+        <v>43742.49538194444</v>
       </c>
       <c r="F7" s="6">
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.6">
@@ -2570,10 +2907,10 @@
         <v>75</v>
       </c>
       <c r="E8" s="7">
-        <v>43742.49538194444</v>
+        <v>43749.17019675926</v>
       </c>
       <c r="F8" s="6">
-        <v>2</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.6">
@@ -2584,56 +2921,56 @@
         <v>47</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E9" s="7">
-        <v>43745.492430555554</v>
+        <v>43742.11253472222</v>
       </c>
       <c r="F9" s="6">
-        <v>512</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E10" s="7">
-        <v>43742.11253472222</v>
+        <v>43742.49538194444</v>
       </c>
       <c r="F10" s="6">
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="6" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E11" s="7">
-        <v>43760.16811342593</v>
+        <v>43745.492430555554</v>
       </c>
       <c r="F11" s="6">
-        <v>234</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.6">
@@ -2644,36 +2981,36 @@
         <v>47</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E12" s="7">
-        <v>43745.492430555554</v>
+        <v>43742.11253472222</v>
       </c>
       <c r="F12" s="6">
-        <v>1333</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="6" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E13" s="7">
-        <v>43749.17019675926</v>
+        <v>43760.16811342593</v>
       </c>
       <c r="F13" s="6">
-        <v>502</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.6">
@@ -2684,16 +3021,16 @@
         <v>47</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E14" s="7">
-        <v>43742.11253472222</v>
+        <v>43745.492430555554</v>
       </c>
       <c r="F14" s="6">
-        <v>1235</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.6">
@@ -2704,10 +3041,10 @@
         <v>40</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E15" s="7">
         <v>43749.17019675926</v>
@@ -2718,22 +3055,22 @@
     </row>
     <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="6" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E16" s="7">
-        <v>43742.11253472222</v>
+        <v>43751.0815162037</v>
       </c>
       <c r="F16" s="6">
-        <v>1235</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.6">
@@ -2744,36 +3081,36 @@
         <v>47</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="E17" s="7">
-        <v>43745.492430555554</v>
+        <v>43742.11253472222</v>
       </c>
       <c r="F17" s="6">
-        <v>1333</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.6">
       <c r="A18" s="6" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E18" s="7">
-        <v>43742.11253472222</v>
+        <v>43749.17019675926</v>
       </c>
       <c r="F18" s="6">
-        <v>153</v>
+        <v>502</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.6">
@@ -2784,15 +3121,115 @@
         <v>47</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E19" s="7">
         <v>43742.11253472222</v>
       </c>
       <c r="F19" s="6">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.6">
+      <c r="A20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E20" s="7">
+        <v>43745.492430555554</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.6">
+      <c r="A21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="7">
+        <v>43756.1120949074</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.6">
+      <c r="A22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="7">
+        <v>43742.42622685185</v>
+      </c>
+      <c r="F22" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.6">
+      <c r="A23" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="7">
+        <v>43742.11253472222</v>
+      </c>
+      <c r="F23" s="6">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.6">
+      <c r="A24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E24" s="7">
+        <v>43742.11253472222</v>
+      </c>
+      <c r="F24" s="6">
         <v>153</v>
       </c>
     </row>

--- a/hzaction-master/src/main/webapp/temp/项目整体结算表.xlsx
+++ b/hzaction-master/src/main/webapp/temp/项目整体结算表.xlsx
@@ -1750,7 +1750,7 @@
         <v>4257</v>
       </c>
       <c r="Y5" s="6">
-        <v>8.403041095890412</v>
+        <v>9.452712328767122</v>
       </c>
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
@@ -1965,30 +1965,14 @@
       <c r="K10" s="7">
         <v>43746</v>
       </c>
-      <c r="L10" s="7">
-        <v>43753</v>
-      </c>
-      <c r="M10" s="6">
-        <v>11111</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>43738</v>
-      </c>
-      <c r="P10" s="6">
-        <v>11111</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>-9094</v>
-      </c>
-      <c r="R10" s="6">
-        <v>-450.8676251859197</v>
-      </c>
-      <c r="S10" s="6">
-        <v>8064</v>
-      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
       <c r="V10" s="6">
@@ -2002,9 +1986,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="6">
-        <v>-7052</v>
-      </c>
+      <c r="AA10" s="6"/>
     </row>
     <row r="11" spans="1:27" ht="15.6">
       <c r="A11" s="6" t="s">
@@ -2038,14 +2020,30 @@
       <c r="K11" s="7">
         <v>43746</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
+      <c r="L11" s="7">
+        <v>43753</v>
+      </c>
+      <c r="M11" s="6">
+        <v>11111</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>43738</v>
+      </c>
+      <c r="P11" s="6">
+        <v>11111</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>-9094</v>
+      </c>
+      <c r="R11" s="6">
+        <v>-450.8676251859197</v>
+      </c>
+      <c r="S11" s="6">
+        <v>8064</v>
+      </c>
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6">
@@ -2059,7 +2057,9 @@
         <v>0</v>
       </c>
       <c r="Z11" s="6"/>
-      <c r="AA11" s="6"/>
+      <c r="AA11" s="6">
+        <v>-7052</v>
+      </c>
     </row>
     <row r="12" spans="1:27" ht="15.6">
       <c r="A12" s="6" t="s">
